--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_19_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_19_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-55253.10861767647</v>
+        <v>-63558.00382533086</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11715962.26448287</v>
+        <v>11715962.26448288</v>
       </c>
     </row>
     <row r="9">
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>342.881375625476</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1384,10 +1384,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>395.5076644073176</v>
+        <v>375.4739158815001</v>
       </c>
       <c r="H11" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1426,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H12" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>44.17482029426318</v>
+        <v>44.17482029426228</v>
       </c>
       <c r="T12" t="n">
         <v>124.8306395731037</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>134.8967801895896</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>40.81179447522021</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1621,10 +1621,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>30.96909392279457</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>296.8669302863551</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H15" t="n">
-        <v>31.62322353306968</v>
+        <v>31.6232235330688</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1824,13 +1824,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>110.1890667631842</v>
       </c>
       <c r="X16" t="n">
-        <v>40.81179447522065</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1855,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>192.3085274337923</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
-        <v>244.9043102020997</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T17" t="n">
         <v>209.6535390155789</v>
@@ -1906,13 +1906,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1973,10 +1973,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>44.17482029426318</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T18" t="n">
-        <v>124.8306395731037</v>
+        <v>124.8306395731035</v>
       </c>
       <c r="U18" t="n">
         <v>174.5071388043578</v>
@@ -2007,19 +2007,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>32.69463107048509</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>37.69870921092682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2095,10 +2095,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
         <v>209.6535390155789</v>
@@ -2143,13 +2143,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>195.3505139659487</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>361.4649050157276</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>44.17482029426311</v>
+        <v>44.17482029426318</v>
       </c>
       <c r="T21" t="n">
         <v>124.8306395731037</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>20.73297797415485</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,16 +2247,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>100.0922726483722</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>215.0681014756237</v>
       </c>
       <c r="E23" t="n">
         <v>429.4369973932878</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2377,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>167.4490654225685</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>44.17482029426311</v>
+        <v>44.17482029426318</v>
       </c>
       <c r="T24" t="n">
         <v>124.8306395731037</v>
@@ -2456,7 +2456,7 @@
         <v>174.5071388043578</v>
       </c>
       <c r="V24" t="n">
-        <v>197.1263427586207</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W24" t="n">
         <v>183.4695267241379</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2529,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>160.5779998508941</v>
       </c>
       <c r="U25" t="n">
-        <v>91.66975178376411</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>202.9938507929472</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>156.0477854834194</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
@@ -2690,7 +2690,7 @@
         <v>124.8306395731037</v>
       </c>
       <c r="U27" t="n">
-        <v>174.5071388043578</v>
+        <v>174.5071388043577</v>
       </c>
       <c r="V27" t="n">
         <v>197.1263427586206</v>
@@ -2715,22 +2715,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>64.65234145753891</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>5.033780699103638</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2797,16 +2797,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>323.2115213346352</v>
       </c>
       <c r="H29" t="n">
         <v>267.0243359415286</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>304.6279919443828</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.104912620080257</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>181.9154744126866</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>358.0685425954623</v>
       </c>
       <c r="G32" t="n">
         <v>395.5076644073176</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
         <v>209.6535390155789</v>
@@ -3091,13 +3091,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>361.464905015728</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T33" t="n">
         <v>124.8306395731037</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.3370279433899657</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
-        <v>5.03378069910375</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>275.6027656317444</v>
@@ -3249,7 +3249,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3274,16 +3274,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>244.9621917497237</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
-        <v>169.8556195777927</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>44.17482029426318</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T36" t="n">
         <v>124.8306395731037</v>
@@ -3429,22 +3429,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>28.23713845689879</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>95.71739746290238</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>388.784704315103</v>
+        <v>138.0170046310688</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T39" t="n">
         <v>124.8306395731037</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>160.9395803951254</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3717,16 +3717,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>5.033780699103743</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
-        <v>41.21687249364525</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
         <v>256.4799845637012</v>
@@ -3805,10 +3805,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.5266111030789</v>
       </c>
     </row>
     <row r="42">
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>44.17482029426311</v>
+        <v>44.17482029426318</v>
       </c>
       <c r="T42" t="n">
         <v>124.8306395731037</v>
@@ -3900,25 +3900,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0937685836068</v>
+        <v>131.3576479578672</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
-        <v>126.5917462427869</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3982,7 +3982,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>158.6851702988639</v>
+        <v>194.7281928688458</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>86.03936104333715</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>167.8191401812166</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2360.327577447737</v>
+        <v>1288.115307679937</v>
       </c>
       <c r="C11" t="n">
-        <v>2013.98275358362</v>
+        <v>1288.115307679937</v>
       </c>
       <c r="D11" t="n">
-        <v>1578.072968758064</v>
+        <v>1288.115307679937</v>
       </c>
       <c r="E11" t="n">
-        <v>1144.298223916359</v>
+        <v>854.340562838232</v>
       </c>
       <c r="F11" t="n">
-        <v>716.4307943255671</v>
+        <v>426.4731332474398</v>
       </c>
       <c r="G11" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001358</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435805</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M11" t="n">
         <v>1131.58869045549</v>
@@ -5056,37 +5056,37 @@
         <v>1463.013992431967</v>
       </c>
       <c r="O11" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q11" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R11" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447737</v>
+        <v>2101.25688596925</v>
       </c>
       <c r="V11" t="n">
-        <v>2360.327577447737</v>
+        <v>2101.25688596925</v>
       </c>
       <c r="W11" t="n">
-        <v>2360.327577447737</v>
+        <v>1696.401431380283</v>
       </c>
       <c r="X11" t="n">
-        <v>2360.327577447737</v>
+        <v>1696.401431380283</v>
       </c>
       <c r="Y11" t="n">
-        <v>2360.327577447737</v>
+        <v>1288.115307679937</v>
       </c>
     </row>
     <row r="12">
@@ -5099,52 +5099,52 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E12" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043082</v>
       </c>
       <c r="J12" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668979</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M12" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O12" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P12" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q12" t="n">
-        <v>1614.947661807679</v>
+        <v>1614.947661807678</v>
       </c>
       <c r="R12" t="n">
-        <v>1676.651116233592</v>
+        <v>1676.651116233591</v>
       </c>
       <c r="S12" t="n">
         <v>1632.030085633326</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>183.4659254778331</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="C13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="D13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="E13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="F13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J13" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K13" t="n">
-        <v>202.9123158186961</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L13" t="n">
-        <v>326.7831174369941</v>
+        <v>326.7831174369939</v>
       </c>
       <c r="M13" t="n">
-        <v>457.3875097755235</v>
+        <v>457.3875097755233</v>
       </c>
       <c r="N13" t="n">
-        <v>584.8864215794131</v>
+        <v>584.8864215794127</v>
       </c>
       <c r="O13" t="n">
-        <v>702.6523029271749</v>
+        <v>702.6523029271744</v>
       </c>
       <c r="P13" t="n">
-        <v>803.4213591048584</v>
+        <v>803.4213591048579</v>
       </c>
       <c r="Q13" t="n">
-        <v>873.1886303355141</v>
+        <v>873.1886303355135</v>
       </c>
       <c r="R13" t="n">
-        <v>889.6597230122815</v>
+        <v>889.6597230122809</v>
       </c>
       <c r="S13" t="n">
-        <v>889.6597230122815</v>
+        <v>889.6597230122809</v>
       </c>
       <c r="T13" t="n">
-        <v>889.6597230122815</v>
+        <v>647.4124989156875</v>
       </c>
       <c r="U13" t="n">
-        <v>889.6597230122815</v>
+        <v>606.1884640922327</v>
       </c>
       <c r="V13" t="n">
-        <v>602.704214882712</v>
+        <v>319.2329559626632</v>
       </c>
       <c r="W13" t="n">
-        <v>602.704214882712</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="X13" t="n">
-        <v>602.704214882712</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="Y13" t="n">
-        <v>375.2845441968203</v>
+        <v>47.20655154895472</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>506.3558941930748</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="C14" t="n">
-        <v>506.3558941930748</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="D14" t="n">
-        <v>506.3558941930748</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="E14" t="n">
-        <v>506.3558941930748</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F14" t="n">
-        <v>78.48846460228259</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G14" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K14" t="n">
         <v>512.3249274228018</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M14" t="n">
         <v>1131.58869045549</v>
@@ -5293,37 +5293,37 @@
         <v>1463.013992431967</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q14" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R14" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U14" t="n">
-        <v>2101.256885969251</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V14" t="n">
-        <v>1738.639935903077</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W14" t="n">
-        <v>1333.784481314111</v>
+        <v>1444.163810064193</v>
       </c>
       <c r="X14" t="n">
-        <v>914.6420178934214</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="Y14" t="n">
-        <v>506.3558941930748</v>
+        <v>1144.298223916359</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>542.5713050663908</v>
+        <v>542.5713050663899</v>
       </c>
       <c r="C15" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030321</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495854</v>
       </c>
       <c r="E15" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765391</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927007</v>
       </c>
       <c r="G15" t="n">
-        <v>79.14920158235846</v>
+        <v>79.14920158235755</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043082</v>
       </c>
       <c r="J15" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668979</v>
       </c>
       <c r="K15" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M15" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O15" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P15" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q15" t="n">
-        <v>1614.947661807679</v>
+        <v>1614.947661807678</v>
       </c>
       <c r="R15" t="n">
-        <v>1676.651116233592</v>
+        <v>1676.651116233591</v>
       </c>
       <c r="S15" t="n">
-        <v>1632.030085633326</v>
+        <v>1632.030085633325</v>
       </c>
       <c r="T15" t="n">
-        <v>1505.938530508979</v>
+        <v>1505.938530508978</v>
       </c>
       <c r="U15" t="n">
-        <v>1329.66869333286</v>
+        <v>1329.668693332859</v>
       </c>
       <c r="V15" t="n">
-        <v>1130.551175394859</v>
+        <v>1130.551175394858</v>
       </c>
       <c r="W15" t="n">
-        <v>945.2284211280532</v>
+        <v>945.2284211280523</v>
       </c>
       <c r="X15" t="n">
-        <v>790.3609853669332</v>
+        <v>790.3609853669323</v>
       </c>
       <c r="Y15" t="n">
-        <v>663.8752061461539</v>
+        <v>663.875206146153</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>47.20655154895474</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="C16" t="n">
-        <v>47.20655154895474</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="D16" t="n">
-        <v>47.20655154895474</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="E16" t="n">
-        <v>47.20655154895474</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="F16" t="n">
-        <v>47.20655154895474</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G16" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J16" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K16" t="n">
         <v>202.912315818696</v>
       </c>
       <c r="L16" t="n">
-        <v>326.783117436994</v>
+        <v>326.7831174369939</v>
       </c>
       <c r="M16" t="n">
-        <v>457.3875097755234</v>
+        <v>457.3875097755233</v>
       </c>
       <c r="N16" t="n">
-        <v>584.886421579413</v>
+        <v>584.8864215794127</v>
       </c>
       <c r="O16" t="n">
-        <v>702.6523029271748</v>
+        <v>702.6523029271744</v>
       </c>
       <c r="P16" t="n">
-        <v>803.4213591048583</v>
+        <v>803.4213591048579</v>
       </c>
       <c r="Q16" t="n">
-        <v>873.1886303355139</v>
+        <v>873.1886303355135</v>
       </c>
       <c r="R16" t="n">
-        <v>889.6597230122813</v>
+        <v>889.6597230122809</v>
       </c>
       <c r="S16" t="n">
-        <v>889.6597230122813</v>
+        <v>889.6597230122809</v>
       </c>
       <c r="T16" t="n">
-        <v>647.4124989156879</v>
+        <v>647.4124989156875</v>
       </c>
       <c r="U16" t="n">
-        <v>647.4124989156879</v>
+        <v>647.4124989156875</v>
       </c>
       <c r="V16" t="n">
-        <v>360.4569907861184</v>
+        <v>647.4124989156875</v>
       </c>
       <c r="W16" t="n">
-        <v>88.43058637240995</v>
+        <v>536.1104112761075</v>
       </c>
       <c r="X16" t="n">
-        <v>47.20655154895474</v>
+        <v>536.1104112761075</v>
       </c>
       <c r="Y16" t="n">
-        <v>47.20655154895474</v>
+        <v>536.1104112761075</v>
       </c>
     </row>
     <row r="17">
@@ -5491,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>294.5846426621868</v>
+        <v>640.960280681389</v>
       </c>
       <c r="C17" t="n">
-        <v>294.5846426621868</v>
+        <v>640.960280681389</v>
       </c>
       <c r="D17" t="n">
-        <v>294.5846426621868</v>
+        <v>640.960280681389</v>
       </c>
       <c r="E17" t="n">
-        <v>294.5846426621868</v>
+        <v>640.960280681389</v>
       </c>
       <c r="F17" t="n">
-        <v>294.5846426621868</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G17" t="n">
-        <v>294.5846426621868</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I17" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M17" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N17" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O17" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P17" t="n">
         <v>2043.069798152528</v>
@@ -5539,28 +5539,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R17" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T17" t="n">
-        <v>2148.556325916849</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U17" t="n">
-        <v>1889.485634438363</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V17" t="n">
-        <v>1526.868684372189</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W17" t="n">
-        <v>1122.013229783223</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="X17" t="n">
-        <v>702.8707663625333</v>
+        <v>1067.259851166297</v>
       </c>
       <c r="Y17" t="n">
-        <v>294.5846426621868</v>
+        <v>1067.259851166297</v>
       </c>
     </row>
     <row r="18">
@@ -5588,7 +5588,7 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I18" t="n">
         <v>81.42328772043084</v>
@@ -5597,22 +5597,22 @@
         <v>175.316627066898</v>
       </c>
       <c r="K18" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M18" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O18" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P18" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q18" t="n">
         <v>1614.947661807679</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1517.87440598441</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="C19" t="n">
-        <v>1517.87440598441</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="D19" t="n">
-        <v>1517.87440598441</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E19" t="n">
-        <v>1517.87440598441</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F19" t="n">
-        <v>1517.87440598441</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G19" t="n">
-        <v>1517.87440598441</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H19" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I19" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J19" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K19" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L19" t="n">
-        <v>1797.450971872449</v>
+        <v>326.7831174369939</v>
       </c>
       <c r="M19" t="n">
-        <v>1928.055364210978</v>
+        <v>457.3875097755233</v>
       </c>
       <c r="N19" t="n">
-        <v>2055.554276014868</v>
+        <v>584.8864215794127</v>
       </c>
       <c r="O19" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271746</v>
       </c>
       <c r="P19" t="n">
-        <v>2274.089213540313</v>
+        <v>803.421359104858</v>
       </c>
       <c r="Q19" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355136</v>
       </c>
       <c r="R19" t="n">
-        <v>2360.327577447737</v>
+        <v>889.659723012281</v>
       </c>
       <c r="S19" t="n">
-        <v>2360.327577447737</v>
+        <v>889.659723012281</v>
       </c>
       <c r="T19" t="n">
-        <v>2360.327577447737</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="U19" t="n">
-        <v>2360.327577447737</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="V19" t="n">
-        <v>2073.372069318167</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="W19" t="n">
-        <v>1801.345664904459</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="X19" t="n">
-        <v>1555.953910237871</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="Y19" t="n">
-        <v>1517.87440598441</v>
+        <v>856.6348431431041</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>921.2588091910869</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C20" t="n">
-        <v>483.1163363745102</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D20" t="n">
-        <v>47.20655154895474</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E20" t="n">
-        <v>47.20655154895474</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F20" t="n">
-        <v>47.20655154895474</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G20" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001352</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M20" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O20" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P20" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q20" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R20" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T20" t="n">
-        <v>2148.556325916849</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U20" t="n">
-        <v>1889.485634438363</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V20" t="n">
-        <v>1526.86868437219</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W20" t="n">
-        <v>1329.544932891434</v>
+        <v>1081.546859998019</v>
       </c>
       <c r="X20" t="n">
-        <v>1329.544932891434</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="Y20" t="n">
-        <v>921.2588091910869</v>
+        <v>716.4307943255671</v>
       </c>
     </row>
     <row r="21">
@@ -5810,25 +5810,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D21" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E21" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F21" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G21" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J21" t="n">
         <v>175.316627066898</v>
@@ -5837,10 +5837,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M21" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N21" t="n">
         <v>1061.861364220108</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2081.94094549648</v>
+        <v>724.29078252242</v>
       </c>
       <c r="C22" t="n">
-        <v>2081.94094549648</v>
+        <v>724.29078252242</v>
       </c>
       <c r="D22" t="n">
-        <v>1916.062952698002</v>
+        <v>558.4127897239428</v>
       </c>
       <c r="E22" t="n">
-        <v>1916.062952698002</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F22" t="n">
-        <v>1814.959646992576</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G22" t="n">
-        <v>1650.218466605094</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H22" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I22" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J22" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K22" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L22" t="n">
-        <v>1797.450971872449</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M22" t="n">
-        <v>1928.055364210979</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N22" t="n">
-        <v>2055.554276014868</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O22" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P22" t="n">
-        <v>2274.089213540314</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q22" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R22" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S22" t="n">
-        <v>2360.327577447737</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T22" t="n">
-        <v>2360.327577447737</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="U22" t="n">
-        <v>2081.94094549648</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="V22" t="n">
-        <v>2081.94094549648</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="W22" t="n">
-        <v>2081.94094549648</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="X22" t="n">
-        <v>2081.94094549648</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="Y22" t="n">
-        <v>2081.94094549648</v>
+        <v>745.2331845165158</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1782.900983623584</v>
+        <v>1126.089232522486</v>
       </c>
       <c r="C23" t="n">
-        <v>1344.758510807007</v>
+        <v>1126.089232522486</v>
       </c>
       <c r="D23" t="n">
         <v>908.8487259814518</v>
@@ -6016,25 +6016,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V23" t="n">
-        <v>2360.327577447737</v>
+        <v>1957.244257596361</v>
       </c>
       <c r="W23" t="n">
-        <v>2360.327577447737</v>
+        <v>1552.388803007394</v>
       </c>
       <c r="X23" t="n">
-        <v>2191.18710732393</v>
+        <v>1552.388803007394</v>
       </c>
       <c r="Y23" t="n">
-        <v>1782.900983623584</v>
+        <v>1552.388803007394</v>
       </c>
     </row>
     <row r="24">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1848.493579170369</v>
+        <v>213.0845443474321</v>
       </c>
       <c r="C25" t="n">
-        <v>1848.493579170369</v>
+        <v>213.0845443474321</v>
       </c>
       <c r="D25" t="n">
-        <v>1682.615586371892</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="E25" t="n">
-        <v>1682.615586371892</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F25" t="n">
-        <v>1682.615586371892</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G25" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H25" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I25" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J25" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K25" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L25" t="n">
-        <v>1797.450971872449</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M25" t="n">
-        <v>1928.055364210979</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N25" t="n">
-        <v>2055.554276014868</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O25" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P25" t="n">
-        <v>2274.089213540314</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q25" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R25" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S25" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T25" t="n">
-        <v>2360.327577447737</v>
+        <v>727.4597231628934</v>
       </c>
       <c r="U25" t="n">
-        <v>2267.731868575248</v>
+        <v>727.4597231628934</v>
       </c>
       <c r="V25" t="n">
-        <v>2267.731868575248</v>
+        <v>440.5042150333238</v>
       </c>
       <c r="W25" t="n">
-        <v>2267.731868575248</v>
+        <v>440.5042150333238</v>
       </c>
       <c r="X25" t="n">
-        <v>2267.731868575248</v>
+        <v>440.5042150333238</v>
       </c>
       <c r="Y25" t="n">
-        <v>2040.312197889356</v>
+        <v>213.0845443474321</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>716.4307943255671</v>
+        <v>1470.343171017674</v>
       </c>
       <c r="C26" t="n">
-        <v>716.4307943255671</v>
+        <v>1032.200698201098</v>
       </c>
       <c r="D26" t="n">
-        <v>716.4307943255671</v>
+        <v>1032.200698201098</v>
       </c>
       <c r="E26" t="n">
-        <v>716.4307943255671</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F26" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G26" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H26" t="n">
         <v>47.20655154895474</v>
@@ -6226,16 +6226,16 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L26" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M26" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N26" t="n">
         <v>1463.013992431967</v>
@@ -6244,7 +6244,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P26" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q26" t="n">
         <v>2243.650993163596</v>
@@ -6253,25 +6253,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S26" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T26" t="n">
-        <v>2108.089956131646</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U26" t="n">
-        <v>2108.089956131646</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V26" t="n">
-        <v>1745.473006065473</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="W26" t="n">
-        <v>1340.617551476506</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="X26" t="n">
-        <v>921.4750880558169</v>
+        <v>1470.343171017674</v>
       </c>
       <c r="Y26" t="n">
-        <v>921.4750880558169</v>
+        <v>1470.343171017674</v>
       </c>
     </row>
     <row r="27">
@@ -6302,13 +6302,13 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I27" t="n">
-        <v>81.42328772043098</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J27" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K27" t="n">
-        <v>335.7952991210684</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L27" t="n">
         <v>551.5786779960906</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1517.87440598441</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="C28" t="n">
-        <v>1517.87440598441</v>
+        <v>679.9277891048604</v>
       </c>
       <c r="D28" t="n">
-        <v>1517.87440598441</v>
+        <v>514.0497963063831</v>
       </c>
       <c r="E28" t="n">
-        <v>1517.87440598441</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="F28" t="n">
-        <v>1517.87440598441</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G28" t="n">
-        <v>1517.87440598441</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H28" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I28" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J28" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K28" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L28" t="n">
-        <v>1797.450971872449</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M28" t="n">
-        <v>1928.055364210979</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N28" t="n">
-        <v>2055.554276014868</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O28" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P28" t="n">
-        <v>2274.089213540314</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q28" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R28" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S28" t="n">
-        <v>2360.327577447737</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T28" t="n">
-        <v>2360.327577447737</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="U28" t="n">
-        <v>2081.94094549648</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="V28" t="n">
-        <v>1794.98543736691</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="W28" t="n">
-        <v>1522.959032953202</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="X28" t="n">
-        <v>1517.87440598441</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="Y28" t="n">
-        <v>1517.87440598441</v>
+        <v>745.2331845165158</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2052.622535079674</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="C29" t="n">
-        <v>1614.480062263097</v>
+        <v>643.4043871814436</v>
       </c>
       <c r="D29" t="n">
-        <v>1178.570277437541</v>
+        <v>643.4043871814436</v>
       </c>
       <c r="E29" t="n">
-        <v>744.7955325958366</v>
+        <v>643.4043871814436</v>
       </c>
       <c r="F29" t="n">
-        <v>316.9281030050443</v>
+        <v>643.4043871814436</v>
       </c>
       <c r="G29" t="n">
         <v>316.9281030050443</v>
@@ -6490,25 +6490,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S29" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T29" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U29" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V29" t="n">
-        <v>2360.327577447737</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W29" t="n">
-        <v>2360.327577447737</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X29" t="n">
-        <v>2052.622535079674</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="Y29" t="n">
-        <v>2052.622535079674</v>
+        <v>1081.54685999802</v>
       </c>
     </row>
     <row r="30">
@@ -6524,13 +6524,13 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D30" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E30" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F30" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G30" t="n">
         <v>79.1492015823585</v>
@@ -6548,16 +6548,16 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L30" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M30" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N30" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O30" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P30" t="n">
         <v>1488.088567599445</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>225.029678940815</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="C31" t="n">
-        <v>225.029678940815</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="D31" t="n">
-        <v>225.029678940815</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="E31" t="n">
-        <v>225.029678940815</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F31" t="n">
-        <v>48.32262490257116</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G31" t="n">
         <v>47.20655154895474</v>
@@ -6648,25 +6648,25 @@
         <v>889.6597230122813</v>
       </c>
       <c r="S31" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T31" t="n">
-        <v>889.6597230122813</v>
+        <v>502.9859604199224</v>
       </c>
       <c r="U31" t="n">
-        <v>889.6597230122813</v>
+        <v>502.9859604199224</v>
       </c>
       <c r="V31" t="n">
-        <v>889.6597230122813</v>
+        <v>502.9859604199224</v>
       </c>
       <c r="W31" t="n">
-        <v>889.6597230122813</v>
+        <v>230.959556006214</v>
       </c>
       <c r="X31" t="n">
-        <v>644.2679683456938</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="Y31" t="n">
-        <v>416.8482976598021</v>
+        <v>47.20655154895474</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>716.4307943255671</v>
+        <v>1078.11619088664</v>
       </c>
       <c r="C32" t="n">
-        <v>716.4307943255671</v>
+        <v>1078.11619088664</v>
       </c>
       <c r="D32" t="n">
-        <v>716.4307943255671</v>
+        <v>1078.11619088664</v>
       </c>
       <c r="E32" t="n">
-        <v>716.4307943255671</v>
+        <v>1078.11619088664</v>
       </c>
       <c r="F32" t="n">
         <v>716.4307943255671</v>
@@ -6694,19 +6694,19 @@
         <v>316.9281030050443</v>
       </c>
       <c r="H32" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L32" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M32" t="n">
         <v>1131.58869045549</v>
@@ -6718,7 +6718,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P32" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q32" t="n">
         <v>2243.650993163596</v>
@@ -6736,16 +6736,16 @@
         <v>1849.01926465316</v>
       </c>
       <c r="V32" t="n">
-        <v>1486.402314586986</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W32" t="n">
-        <v>1081.54685999802</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="X32" t="n">
-        <v>716.4307943255671</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="Y32" t="n">
-        <v>716.4307943255671</v>
+        <v>1078.11619088664</v>
       </c>
     </row>
     <row r="33">
@@ -6758,19 +6758,19 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C33" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D33" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E33" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F33" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G33" t="n">
-        <v>79.14920158235849</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H33" t="n">
         <v>47.20655154895474</v>
@@ -6788,7 +6788,7 @@
         <v>551.5786779960906</v>
       </c>
       <c r="M33" t="n">
-        <v>803.3877032987881</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N33" t="n">
         <v>1061.861364220108</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>47.20655154895473</v>
+        <v>179.8910444356893</v>
       </c>
       <c r="C34" t="n">
-        <v>47.20655154895473</v>
+        <v>179.8910444356893</v>
       </c>
       <c r="D34" t="n">
-        <v>47.20655154895473</v>
+        <v>179.8910444356893</v>
       </c>
       <c r="E34" t="n">
-        <v>47.20655154895473</v>
+        <v>179.8910444356893</v>
       </c>
       <c r="F34" t="n">
-        <v>47.20655154895473</v>
+        <v>179.8910444356893</v>
       </c>
       <c r="G34" t="n">
-        <v>47.20655154895473</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H34" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I34" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J34" t="n">
         <v>106.1122152511379</v>
@@ -6867,43 +6867,43 @@
         <v>326.783117436994</v>
       </c>
       <c r="M34" t="n">
-        <v>457.3875097755235</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N34" t="n">
-        <v>584.8864215794131</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O34" t="n">
-        <v>702.6523029271749</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P34" t="n">
-        <v>803.4213591048584</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q34" t="n">
-        <v>873.1886303355141</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R34" t="n">
-        <v>889.6597230122815</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S34" t="n">
-        <v>889.6597230122815</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T34" t="n">
-        <v>884.5750960434898</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="U34" t="n">
-        <v>606.1884640922327</v>
+        <v>466.8465525652588</v>
       </c>
       <c r="V34" t="n">
-        <v>319.2329559626632</v>
+        <v>179.8910444356893</v>
       </c>
       <c r="W34" t="n">
-        <v>47.20655154895473</v>
+        <v>179.8910444356893</v>
       </c>
       <c r="X34" t="n">
-        <v>47.20655154895473</v>
+        <v>179.8910444356893</v>
       </c>
       <c r="Y34" t="n">
-        <v>47.20655154895473</v>
+        <v>179.8910444356893</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1080.420058888313</v>
+        <v>1122.013229783223</v>
       </c>
       <c r="C35" t="n">
-        <v>1080.420058888313</v>
+        <v>1122.013229783223</v>
       </c>
       <c r="D35" t="n">
-        <v>1080.420058888313</v>
+        <v>1122.013229783223</v>
       </c>
       <c r="E35" t="n">
-        <v>646.6453140466083</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F35" t="n">
-        <v>218.777884455816</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G35" t="n">
-        <v>218.777884455816</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H35" t="n">
         <v>47.20655154895474</v>
@@ -6937,13 +6937,13 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M35" t="n">
         <v>1131.58869045549</v>
@@ -6958,31 +6958,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q35" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R35" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S35" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T35" t="n">
-        <v>2319.861207662534</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U35" t="n">
-        <v>2319.861207662534</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V35" t="n">
-        <v>2319.861207662534</v>
+        <v>1526.86868437219</v>
       </c>
       <c r="W35" t="n">
-        <v>1915.005753073567</v>
+        <v>1122.013229783223</v>
       </c>
       <c r="X35" t="n">
-        <v>1915.005753073567</v>
+        <v>1122.013229783223</v>
       </c>
       <c r="Y35" t="n">
-        <v>1506.719629373221</v>
+        <v>1122.013229783223</v>
       </c>
     </row>
     <row r="36">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>644.2679683456939</v>
+        <v>617.6333185985729</v>
       </c>
       <c r="C37" t="n">
-        <v>644.2679683456939</v>
+        <v>617.6333185985729</v>
       </c>
       <c r="D37" t="n">
-        <v>478.3899755472166</v>
+        <v>589.1109565208974</v>
       </c>
       <c r="E37" t="n">
-        <v>308.6319717979539</v>
+        <v>419.3529527716346</v>
       </c>
       <c r="F37" t="n">
-        <v>211.9477319364363</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="G37" t="n">
-        <v>47.20655154895474</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H37" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I37" t="n">
         <v>47.20655154895474</v>
@@ -7098,49 +7098,49 @@
         <v>106.1122152511379</v>
       </c>
       <c r="K37" t="n">
-        <v>202.9123158186961</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L37" t="n">
-        <v>326.7831174369941</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M37" t="n">
-        <v>457.3875097755235</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N37" t="n">
-        <v>584.8864215794131</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O37" t="n">
-        <v>702.6523029271749</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P37" t="n">
-        <v>803.4213591048584</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q37" t="n">
-        <v>873.1886303355141</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R37" t="n">
-        <v>889.6597230122815</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S37" t="n">
-        <v>889.6597230122815</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T37" t="n">
-        <v>889.6597230122815</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="U37" t="n">
-        <v>889.6597230122815</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="V37" t="n">
-        <v>889.6597230122815</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="W37" t="n">
-        <v>889.6597230122815</v>
+        <v>617.6333185985729</v>
       </c>
       <c r="X37" t="n">
-        <v>644.2679683456939</v>
+        <v>617.6333185985729</v>
       </c>
       <c r="Y37" t="n">
-        <v>644.2679683456939</v>
+        <v>617.6333185985729</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1313.970631731595</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="C38" t="n">
-        <v>875.8281589150183</v>
+        <v>1048.25984177041</v>
       </c>
       <c r="D38" t="n">
-        <v>439.9183740894628</v>
+        <v>1048.25984177041</v>
       </c>
       <c r="E38" t="n">
-        <v>439.9183740894628</v>
+        <v>614.4850969287054</v>
       </c>
       <c r="F38" t="n">
-        <v>439.9183740894628</v>
+        <v>186.6176673379131</v>
       </c>
       <c r="G38" t="n">
         <v>47.20655154895474</v>
@@ -7171,13 +7171,13 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L38" t="n">
         <v>805.4408022867025</v>
@@ -7201,25 +7201,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S38" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T38" t="n">
-        <v>2148.556325916849</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U38" t="n">
-        <v>2148.556325916849</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V38" t="n">
-        <v>2148.556325916849</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W38" t="n">
-        <v>2148.556325916849</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="X38" t="n">
-        <v>2148.556325916849</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="Y38" t="n">
-        <v>1740.270202216503</v>
+        <v>1486.402314586987</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>542.5713050663906</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C39" t="n">
-        <v>436.1148439030328</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D39" t="n">
-        <v>341.0245550495861</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E39" t="n">
-        <v>246.9041403765398</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F39" t="n">
-        <v>163.5203019927014</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G39" t="n">
-        <v>79.14920158235827</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H39" t="n">
         <v>47.20655154895474</v>
@@ -7292,13 +7292,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W39" t="n">
-        <v>945.228421128053</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X39" t="n">
-        <v>790.3609853669329</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y39" t="n">
-        <v>663.8752061461537</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="40">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>727.0944902899325</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="C40" t="n">
-        <v>554.5327787731575</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6547859746801</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="E40" t="n">
-        <v>388.6547859746801</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F40" t="n">
-        <v>211.9477319364363</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G40" t="n">
         <v>47.20655154895474</v>
@@ -7335,49 +7335,49 @@
         <v>106.1122152511379</v>
       </c>
       <c r="K40" t="n">
-        <v>202.9123158186961</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L40" t="n">
-        <v>326.7831174369941</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M40" t="n">
-        <v>457.3875097755235</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N40" t="n">
-        <v>584.8864215794131</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O40" t="n">
-        <v>702.6523029271749</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P40" t="n">
-        <v>803.4213591048584</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q40" t="n">
-        <v>873.1886303355141</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R40" t="n">
-        <v>889.6597230122815</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S40" t="n">
-        <v>889.6597230122815</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T40" t="n">
-        <v>889.6597230122815</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="U40" t="n">
-        <v>889.6597230122815</v>
+        <v>611.2730910610244</v>
       </c>
       <c r="V40" t="n">
-        <v>889.6597230122815</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="W40" t="n">
-        <v>889.6597230122815</v>
+        <v>52.2911785177464</v>
       </c>
       <c r="X40" t="n">
-        <v>889.6597230122815</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.6597230122815</v>
+        <v>47.20655154895474</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>488.3424474085132</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C41" t="n">
-        <v>488.3424474085132</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D41" t="n">
-        <v>488.3424474085132</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E41" t="n">
-        <v>488.3424474085132</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F41" t="n">
-        <v>488.3424474085132</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G41" t="n">
-        <v>88.83975608799034</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H41" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001352</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J41" t="n">
         <v>276.0532770435805</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L41" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M41" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N41" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O41" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P41" t="n">
         <v>2043.069798152528</v>
@@ -7441,22 +7441,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T41" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U41" t="n">
-        <v>2101.256885969251</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V41" t="n">
-        <v>1738.639935903077</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="W41" t="n">
-        <v>1333.78448131411</v>
+        <v>1122.013229783223</v>
       </c>
       <c r="X41" t="n">
-        <v>914.642017893421</v>
+        <v>1122.013229783223</v>
       </c>
       <c r="Y41" t="n">
-        <v>914.642017893421</v>
+        <v>716.4307943255671</v>
       </c>
     </row>
     <row r="42">
@@ -7481,7 +7481,7 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G42" t="n">
-        <v>79.14920158235849</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H42" t="n">
         <v>47.20655154895473</v>
@@ -7496,10 +7496,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L42" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M42" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N42" t="n">
         <v>1061.861364220108</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>617.362733766226</v>
+        <v>179.8910444356893</v>
       </c>
       <c r="C43" t="n">
-        <v>444.801022249451</v>
+        <v>179.8910444356893</v>
       </c>
       <c r="D43" t="n">
-        <v>444.801022249451</v>
+        <v>179.8910444356893</v>
       </c>
       <c r="E43" t="n">
-        <v>275.0430185001883</v>
+        <v>179.8910444356893</v>
       </c>
       <c r="F43" t="n">
-        <v>275.0430185001883</v>
+        <v>179.8910444356893</v>
       </c>
       <c r="G43" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H43" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I43" t="n">
         <v>47.20655154895473</v>
@@ -7599,22 +7599,22 @@
         <v>745.2331845165158</v>
       </c>
       <c r="T43" t="n">
-        <v>617.362733766226</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="U43" t="n">
-        <v>617.362733766226</v>
+        <v>466.8465525652588</v>
       </c>
       <c r="V43" t="n">
-        <v>617.362733766226</v>
+        <v>179.8910444356893</v>
       </c>
       <c r="W43" t="n">
-        <v>617.362733766226</v>
+        <v>179.8910444356893</v>
       </c>
       <c r="X43" t="n">
-        <v>617.362733766226</v>
+        <v>179.8910444356893</v>
       </c>
       <c r="Y43" t="n">
-        <v>617.362733766226</v>
+        <v>179.8910444356893</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>921.2588091910869</v>
+        <v>884.8517156860543</v>
       </c>
       <c r="C44" t="n">
-        <v>483.1163363745102</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="D44" t="n">
-        <v>47.20655154895474</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E44" t="n">
-        <v>47.20655154895474</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F44" t="n">
-        <v>47.20655154895474</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G44" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435804</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M44" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N44" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O44" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P44" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q44" t="n">
         <v>2243.650993163596</v>
@@ -7684,16 +7684,16 @@
         <v>1849.01926465316</v>
       </c>
       <c r="V44" t="n">
-        <v>1486.402314586987</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W44" t="n">
         <v>1081.54685999802</v>
       </c>
       <c r="X44" t="n">
-        <v>921.2588091910869</v>
+        <v>884.8517156860543</v>
       </c>
       <c r="Y44" t="n">
-        <v>921.2588091910869</v>
+        <v>884.8517156860543</v>
       </c>
     </row>
     <row r="45">
@@ -7703,40 +7703,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>542.5713050663909</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>436.1148439030332</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D45" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E45" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F45" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G45" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043098</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J45" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K45" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L45" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M45" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N45" t="n">
         <v>1061.861364220108</v>
@@ -7769,10 +7769,10 @@
         <v>945.2284211280532</v>
       </c>
       <c r="X45" t="n">
-        <v>790.3609853669333</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y45" t="n">
-        <v>663.875206146154</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>720.1454400009515</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="C46" t="n">
-        <v>547.5837284841764</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="D46" t="n">
-        <v>381.7057356856991</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="E46" t="n">
-        <v>211.9477319364363</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="F46" t="n">
-        <v>211.9477319364363</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G46" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H46" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J46" t="n">
         <v>106.1122152511379</v>
@@ -7833,25 +7833,25 @@
         <v>889.6597230122813</v>
       </c>
       <c r="S46" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T46" t="n">
-        <v>889.6597230122813</v>
+        <v>658.3247390181955</v>
       </c>
       <c r="U46" t="n">
-        <v>889.6597230122813</v>
+        <v>658.3247390181955</v>
       </c>
       <c r="V46" t="n">
-        <v>889.6597230122813</v>
+        <v>371.369230888626</v>
       </c>
       <c r="W46" t="n">
-        <v>720.1454400009515</v>
+        <v>371.369230888626</v>
       </c>
       <c r="X46" t="n">
-        <v>720.1454400009515</v>
+        <v>371.369230888626</v>
       </c>
       <c r="Y46" t="n">
-        <v>720.1454400009515</v>
+        <v>371.369230888626</v>
       </c>
     </row>
   </sheetData>
@@ -23260,10 +23260,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>90.87967246293493</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>20.03374852581743</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T11" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23387,7 +23387,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>8.384404281969182e-13</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>35.93931421201771</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -23436,7 +23436,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,22 +23469,22 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6027656317444</v>
+        <v>234.7909711565242</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -23509,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>364.538570484523</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>118.0841085001273</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23591,7 +23591,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>9.201528428093297e-13</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -23667,13 +23667,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>159.1170736063872</v>
       </c>
       <c r="X16" t="n">
-        <v>202.126042644701</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -23743,13 +23743,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>231.280227861092</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>22.12002573942898</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23794,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23895,22 +23895,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,22 +23943,22 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
-        <v>239.8247518556274</v>
+        <v>207.1301207851423</v>
       </c>
       <c r="U19" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>187.446764768106</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -23971,10 +23971,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -23983,10 +23983,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24031,13 +24031,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>205.4563860771283</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>53.4861337707548</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>169.1674545576424</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -24135,16 +24135,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>74.84771084948915</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
         <v>62.46433369811443</v>
@@ -24177,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>216.4825855016762</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>209.6535390155789</v>
@@ -24265,16 +24265,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>247.5019733639139</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -24378,7 +24378,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
         <v>131.0206200144773</v>
@@ -24417,13 +24417,13 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T25" t="n">
-        <v>239.8247518556274</v>
+        <v>79.24675200473337</v>
       </c>
       <c r="U25" t="n">
-        <v>183.9330138479803</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>219.0427239871115</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>273.3892119098683</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,19 +24493,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24603,22 +24603,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>106.1837529440684</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>62.46433369811443</v>
@@ -24651,22 +24651,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>237.904056420818</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -24685,16 +24685,16 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>395.5076644073176</v>
+        <v>72.29614307268236</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>110.3230468420996</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
@@ -24849,10 +24849,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>161.9888559635265</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H31" t="n">
         <v>131.0206200144773</v>
@@ -24888,10 +24888,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>275.6027656317444</v>
@@ -24900,13 +24900,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>61.02236270723503</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -24928,7 +24928,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>65.52021269942202</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24979,13 +24979,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>53.48613377075435</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25089,10 +25089,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.0937685836068</v>
+        <v>162.7567406402168</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>62.46433369811443</v>
@@ -25125,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>234.7909711565237</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
@@ -25162,16 +25162,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>184.4748056435641</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>97.16871636373597</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25317,22 +25317,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>135.9820744135937</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>79.22258603495895</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25374,10 +25374,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>6.722960092214578</v>
+        <v>257.4906597762488</v>
       </c>
       <c r="H38" t="n">
         <v>267.0243359415286</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
@@ -25459,7 +25459,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>28.9608521366718</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
         <v>131.0206200144773</v>
@@ -25605,16 +25605,16 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>237.9040564208179</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>225.8074634478834</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,7 +25681,7 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25693,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>2.676651360264202</v>
       </c>
     </row>
     <row r="42">
@@ -25788,25 +25788,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>31.73612062573955</v>
       </c>
       <c r="H43" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,13 +25839,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>113.2330056128405</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -25879,7 +25879,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>267.0243359415286</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>256.2658684876185</v>
+        <v>220.2228459176366</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>62.46433369811443</v>
@@ -26073,19 +26073,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>239.8247518556274</v>
+        <v>153.7853908122903</v>
       </c>
       <c r="U46" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>101.4870001883548</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>363547.6966943227</v>
+        <v>363547.6966943225</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>363547.6966943227</v>
+        <v>363547.6966943225</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>363547.6966943227</v>
+        <v>363547.6966943226</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>363547.6966943227</v>
+        <v>363547.6966943226</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>363547.6966943227</v>
+        <v>363547.6966943226</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>363547.6966943227</v>
+        <v>363547.6966943226</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>363547.6966943227</v>
+        <v>363547.6966943226</v>
       </c>
     </row>
   </sheetData>
@@ -26331,13 +26331,13 @@
         <v>125843.4334711117</v>
       </c>
       <c r="H2" t="n">
-        <v>125843.4334711118</v>
+        <v>125843.4334711117</v>
       </c>
       <c r="I2" t="n">
         <v>125843.4334711117</v>
       </c>
       <c r="J2" t="n">
-        <v>125843.4334711117</v>
+        <v>125843.4334711118</v>
       </c>
       <c r="K2" t="n">
         <v>125843.4334711117</v>
@@ -26349,7 +26349,7 @@
         <v>125843.4334711118</v>
       </c>
       <c r="N2" t="n">
-        <v>125843.4334711118</v>
+        <v>125843.4334711117</v>
       </c>
       <c r="O2" t="n">
         <v>125843.4334711117</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>551135.2009906758</v>
+        <v>551135.2009906756</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>147050.7684025715</v>
+        <v>147050.7684025714</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>414.290544423169</v>
+        <v>414.2905444231687</v>
       </c>
       <c r="F4" t="n">
-        <v>414.2905444231689</v>
+        <v>414.2905444231688</v>
       </c>
       <c r="G4" t="n">
         <v>414.2905444231689</v>
@@ -26438,7 +26438,7 @@
         <v>414.2905444231689</v>
       </c>
       <c r="I4" t="n">
-        <v>414.2905444231689</v>
+        <v>414.290544423169</v>
       </c>
       <c r="J4" t="n">
         <v>414.290544423169</v>
@@ -26450,16 +26450,16 @@
         <v>414.2905444231689</v>
       </c>
       <c r="M4" t="n">
-        <v>414.2905444231689</v>
+        <v>414.290544423169</v>
       </c>
       <c r="N4" t="n">
-        <v>414.2905444231689</v>
+        <v>414.290544423169</v>
       </c>
       <c r="O4" t="n">
         <v>414.2905444231689</v>
       </c>
       <c r="P4" t="n">
-        <v>414.2905444231689</v>
+        <v>414.290544423169</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.0812096378</v>
       </c>
       <c r="F5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.0812096378</v>
       </c>
       <c r="G5" t="n">
         <v>46051.08120963781</v>
       </c>
       <c r="H5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="I5" t="n">
         <v>46051.08120963782</v>
@@ -26499,7 +26499,7 @@
         <v>46051.08120963782</v>
       </c>
       <c r="L5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="M5" t="n">
         <v>46051.08120963782</v>
@@ -26511,7 +26511,7 @@
         <v>46051.08120963781</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="E6" t="n">
-        <v>-471757.1392736251</v>
+        <v>-472398.3773874003</v>
       </c>
       <c r="F6" t="n">
-        <v>79378.06171705076</v>
+        <v>78736.8236032753</v>
       </c>
       <c r="G6" t="n">
-        <v>79378.06171705075</v>
+        <v>78736.82360327533</v>
       </c>
       <c r="H6" t="n">
-        <v>79378.06171705076</v>
+        <v>78736.8236032753</v>
       </c>
       <c r="I6" t="n">
-        <v>79378.06171705076</v>
+        <v>78736.82360327533</v>
       </c>
       <c r="J6" t="n">
-        <v>79378.06171705076</v>
+        <v>78736.82360327536</v>
       </c>
       <c r="K6" t="n">
-        <v>79378.06171705076</v>
+        <v>78736.82360327535</v>
       </c>
       <c r="L6" t="n">
-        <v>79378.06171705073</v>
+        <v>78736.82360327535</v>
       </c>
       <c r="M6" t="n">
-        <v>-67672.70668552074</v>
+        <v>-68313.94479929605</v>
       </c>
       <c r="N6" t="n">
-        <v>79378.06171705076</v>
+        <v>78736.82360327535</v>
       </c>
       <c r="O6" t="n">
-        <v>79378.06171705075</v>
+        <v>78736.82360327533</v>
       </c>
       <c r="P6" t="n">
-        <v>79378.06171705073</v>
+        <v>78736.82360327533</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.701928093221</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.701928093221</v>
       </c>
       <c r="G3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="H3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="I3" t="n">
         <v>466.7019280932212</v>
@@ -26776,7 +26776,7 @@
         <v>466.7019280932212</v>
       </c>
       <c r="O3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="P3" t="n">
         <v>466.7019280932212</v>
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="F4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="G4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="H4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="I4" t="n">
         <v>590.0818943619342</v>
@@ -26819,7 +26819,7 @@
         <v>590.0818943619342</v>
       </c>
       <c r="L4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="M4" t="n">
         <v>590.0818943619342</v>
@@ -26831,7 +26831,7 @@
         <v>590.0818943619341</v>
       </c>
       <c r="P4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.701928093221</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619344</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H11" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J11" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
-        <v>334.7730322994722</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q11" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R11" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S11" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,46 +31834,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L12" t="n">
-        <v>217.9630089646691</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S12" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600662</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I13" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L13" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M13" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N13" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P13" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R13" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H14" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J14" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q14" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R14" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S14" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,46 +32071,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I15" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L15" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600662</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I16" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M16" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R16" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H17" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q17" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R17" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S17" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,46 +32308,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I18" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K18" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L18" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I19" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
@@ -32405,28 +32405,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O19" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R19" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,28 +32469,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -32502,7 +32502,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U20" t="n">
         <v>0.1500950924520911</v>
@@ -32545,13 +32545,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I21" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
@@ -32563,25 +32563,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S21" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U21" t="n">
         <v>0.06604272567356906</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I22" t="n">
         <v>25.30901603495698</v>
@@ -32633,7 +32633,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
@@ -32657,10 +32657,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S22" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U22" t="n">
         <v>0.04590510768130049</v>
@@ -32946,7 +32946,7 @@
         <v>72.33176314699061</v>
       </c>
       <c r="J26" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125712</v>
       </c>
       <c r="K26" t="n">
         <v>238.6582327062838</v>
@@ -33259,7 +33259,7 @@
         <v>9.695072128879936</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
         <v>94.84175691562339</v>
@@ -33432,7 +33432,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N32" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
         <v>316.1166813548411</v>
@@ -33447,10 +33447,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S32" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T32" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U32" t="n">
         <v>0.1500950924520911</v>
@@ -33493,10 +33493,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H33" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
         <v>94.84175691562339</v>
@@ -33505,7 +33505,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
         <v>254.3525508108055</v>
@@ -33517,22 +33517,22 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P33" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S33" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T33" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,25 +33569,25 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H34" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I34" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M34" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
         <v>128.7867795998885</v>
@@ -33599,10 +33599,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R34" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S34" t="n">
         <v>14.66668190417549</v>
@@ -33611,7 +33611,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33669,7 +33669,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N35" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
         <v>316.1166813548411</v>
@@ -33684,10 +33684,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S35" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T35" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U35" t="n">
         <v>0.1500950924520911</v>
@@ -33730,10 +33730,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H36" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
         <v>94.84175691562339</v>
@@ -33742,7 +33742,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
         <v>254.3525508108055</v>
@@ -33754,22 +33754,22 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S36" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T36" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,25 +33806,25 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H37" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I37" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M37" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
         <v>128.7867795998885</v>
@@ -33836,10 +33836,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R37" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S37" t="n">
         <v>14.66668190417549</v>
@@ -33848,7 +33848,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33906,7 +33906,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N38" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
         <v>316.1166813548411</v>
@@ -33921,10 +33921,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S38" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T38" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U38" t="n">
         <v>0.1500950924520911</v>
@@ -33967,10 +33967,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H39" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
         <v>94.84175691562339</v>
@@ -33979,7 +33979,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L39" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
         <v>254.3525508108055</v>
@@ -33991,22 +33991,22 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S39" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T39" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,25 +34043,25 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H40" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I40" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L40" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M40" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
         <v>128.7867795998885</v>
@@ -34073,10 +34073,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R40" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S40" t="n">
         <v>14.66668190417549</v>
@@ -34085,7 +34085,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,28 +34128,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I41" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
@@ -34161,7 +34161,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T41" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U41" t="n">
         <v>0.1500950924520911</v>
@@ -34204,13 +34204,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H42" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I42" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K42" t="n">
         <v>162.0996687415861</v>
@@ -34222,25 +34222,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O42" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S42" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T42" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U42" t="n">
         <v>0.06604272567356906</v>
@@ -34280,10 +34280,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H43" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I43" t="n">
         <v>25.30901603495698</v>
@@ -34292,7 +34292,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L43" t="n">
         <v>125.1220218366646</v>
@@ -34316,10 +34316,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S43" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T43" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U43" t="n">
         <v>0.04590510768130049</v>
@@ -35406,25 +35406,25 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J11" t="n">
         <v>159.2391669125709</v>
       </c>
       <c r="K11" t="n">
-        <v>238.658232706284</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994719</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P11" t="n">
         <v>269.7982739184536</v>
@@ -35433,7 +35433,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R11" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L12" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811312</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P12" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R12" t="n">
         <v>62.32672164233622</v>
@@ -35567,31 +35567,31 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L13" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M13" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N13" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
-        <v>118.9554357048099</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P13" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q13" t="n">
         <v>70.47199114207638</v>
       </c>
       <c r="R13" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35643,25 +35643,25 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J14" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766671</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548407</v>
       </c>
       <c r="P14" t="n">
         <v>269.7982739184536</v>
@@ -35670,7 +35670,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R14" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L15" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811312</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P15" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R15" t="n">
         <v>62.32672164233622</v>
@@ -35804,31 +35804,31 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M16" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
-        <v>118.9554357048099</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q16" t="n">
         <v>70.47199114207638</v>
       </c>
       <c r="R16" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,16 +35880,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J17" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
         <v>329.4423112816032</v>
@@ -35898,7 +35898,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P17" t="n">
         <v>269.7982739184533</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K18" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L18" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M18" t="n">
         <v>254.3525508108055</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K19" t="n">
         <v>97.77787936116988</v>
@@ -36056,16 +36056,16 @@
         <v>128.7867795998884</v>
       </c>
       <c r="O19" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R19" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
@@ -36135,10 +36135,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
         <v>94.84175691562339</v>
@@ -36211,7 +36211,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742734</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L22" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M22" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O22" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P22" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R22" t="n">
         <v>16.63746735027015</v>
@@ -36357,7 +36357,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J23" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K23" t="n">
         <v>238.6582327062838</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L25" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M25" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O25" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P25" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R25" t="n">
         <v>16.63746735027015</v>
@@ -36594,7 +36594,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J26" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125712</v>
       </c>
       <c r="K26" t="n">
         <v>238.6582327062838</v>
@@ -36612,10 +36612,10 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q26" t="n">
-        <v>202.6072676879476</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R26" t="n">
         <v>117.855135640546</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916792</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L27" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
         <v>254.3525508108055</v>
@@ -36691,13 +36691,13 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P27" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q27" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.326721642336</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L28" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M28" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O28" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P28" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R28" t="n">
         <v>16.63746735027015</v>
@@ -36913,13 +36913,13 @@
         <v>94.84175691562339</v>
       </c>
       <c r="K30" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L30" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N30" t="n">
         <v>261.0845059811313</v>
@@ -36928,7 +36928,7 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q30" t="n">
         <v>128.1404992002369</v>
@@ -37071,13 +37071,13 @@
         <v>159.2391669125709</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
         <v>334.7730322994721</v>
@@ -37086,7 +37086,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184531</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
@@ -37156,10 +37156,10 @@
         <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
         <v>238.8413159742734</v>
@@ -37171,7 +37171,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.326721642336</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37229,13 +37229,13 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M34" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
         <v>128.7867795998885</v>
@@ -37305,10 +37305,10 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J35" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125713</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
         <v>296.0766412766674</v>
@@ -37323,13 +37323,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R35" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
@@ -37542,13 +37542,13 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J38" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
         <v>329.4423112816032</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
         <v>125.1220218366646</v>
@@ -37776,28 +37776,28 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J41" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062838</v>
+        <v>238.658232706284</v>
       </c>
       <c r="L41" t="n">
         <v>296.0766412766673</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
         <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
@@ -37870,7 +37870,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O42" t="n">
         <v>238.8413159742734</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916792</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562325</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K45" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L45" t="n">
         <v>217.963008964669</v>
@@ -38107,19 +38107,19 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O45" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.326721642336</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L46" t="n">
         <v>125.1220218366646</v>
